--- a/Code/Results/Cases/Case_2_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.45906299999984</v>
+        <v>17.76015136190095</v>
       </c>
       <c r="C2">
-        <v>10.88451759650791</v>
+        <v>10.62655083921642</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.432501719268764</v>
+        <v>15.75911348061313</v>
       </c>
       <c r="F2">
-        <v>27.58339029885906</v>
+        <v>37.86406441250496</v>
       </c>
       <c r="G2">
-        <v>2.079630342810993</v>
+        <v>3.647195106548639</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.920248843166281</v>
+        <v>7.793573481488314</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.718633733093945</v>
+        <v>12.66801034171153</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.08375136068433</v>
+        <v>17.95183981319581</v>
       </c>
       <c r="O2">
-        <v>16.36354341740405</v>
+        <v>24.21493026832341</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.99909635346822</v>
+        <v>17.31743106386717</v>
       </c>
       <c r="C3">
-        <v>10.52180996715633</v>
+        <v>10.50202157589124</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.373476706672921</v>
+        <v>15.78412391665828</v>
       </c>
       <c r="F3">
-        <v>26.85427620831076</v>
+        <v>37.86731700481619</v>
       </c>
       <c r="G3">
-        <v>2.085365158232886</v>
+        <v>3.649386480677572</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.935325302380343</v>
+        <v>7.799749773948999</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.439072474993653</v>
+        <v>12.64155157016876</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.24687411055222</v>
+        <v>18.00619248413137</v>
       </c>
       <c r="O3">
-        <v>16.1465241292316</v>
+        <v>24.27136305561313</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.09613434782127</v>
+        <v>17.04254286890179</v>
       </c>
       <c r="C4">
-        <v>10.29242292619666</v>
+        <v>10.42415064130647</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.341394639767202</v>
+        <v>15.80150863720164</v>
       </c>
       <c r="F4">
-        <v>26.42103582852761</v>
+        <v>37.87882779522931</v>
       </c>
       <c r="G4">
-        <v>2.088994254276911</v>
+        <v>3.650803676849022</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.945048846477096</v>
+        <v>7.803818088074102</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.26599303527264</v>
+        <v>12.62698856031388</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.35050912056517</v>
+        <v>18.04143792110278</v>
       </c>
       <c r="O4">
-        <v>16.02887982498355</v>
+        <v>24.31208153850937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.72082523484165</v>
+        <v>16.9299206556445</v>
       </c>
       <c r="C5">
-        <v>10.19734973780593</v>
+        <v>10.39208234087552</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.329355669168692</v>
+        <v>15.80910344715583</v>
       </c>
       <c r="F5">
-        <v>26.24828659389259</v>
+        <v>37.88591036140324</v>
       </c>
       <c r="G5">
-        <v>2.090500975150186</v>
+        <v>3.651399279116468</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.949130541857969</v>
+        <v>7.805545589121916</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.195200822820182</v>
+        <v>12.62148119094821</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.39361427482013</v>
+        <v>18.05627265266385</v>
       </c>
       <c r="O5">
-        <v>15.98477809212004</v>
+        <v>24.33019600940542</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.65782834594402</v>
+        <v>16.91118838502911</v>
       </c>
       <c r="C6">
-        <v>10.1814691637319</v>
+        <v>10.38673774114418</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.327418747816335</v>
+        <v>15.81039539662991</v>
       </c>
       <c r="F6">
-        <v>26.21983600387243</v>
+        <v>37.88723083444418</v>
       </c>
       <c r="G6">
-        <v>2.090752866114065</v>
+        <v>3.651499272310536</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.949815562855345</v>
+        <v>7.805836651178873</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.183433075272111</v>
+        <v>12.62059260876897</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.40082456509958</v>
+        <v>18.05876448251769</v>
       </c>
       <c r="O6">
-        <v>15.97768418710398</v>
+        <v>24.33329564725429</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09111826482265</v>
+        <v>17.04102622382521</v>
       </c>
       <c r="C7">
-        <v>10.29114707985443</v>
+        <v>10.42371948890629</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.341228104215991</v>
+        <v>15.80160899640937</v>
       </c>
       <c r="F7">
-        <v>26.41869046873808</v>
+        <v>37.87891363050866</v>
       </c>
       <c r="G7">
-        <v>2.08901446083161</v>
+        <v>3.650811636053948</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.945103408219316</v>
+        <v>7.803841103545306</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.26503922839494</v>
+        <v>12.62691255128181</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.35108691771188</v>
+        <v>18.04163607528642</v>
       </c>
       <c r="O7">
-        <v>16.02826962997367</v>
+        <v>24.31231968309989</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.96652887634664</v>
+        <v>17.60823252497582</v>
       </c>
       <c r="C8">
-        <v>10.76089069392431</v>
+        <v>10.58391706557683</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.411280235329311</v>
+        <v>15.76731636581758</v>
       </c>
       <c r="F8">
-        <v>27.32909803719036</v>
+        <v>37.86321148163442</v>
       </c>
       <c r="G8">
-        <v>2.081585747637293</v>
+        <v>3.647935849324307</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.925351596555868</v>
+        <v>7.795645903766555</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.622593866881637</v>
+        <v>12.65854059330554</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.13927336526571</v>
+        <v>17.97019255768919</v>
       </c>
       <c r="O8">
-        <v>16.28542866461033</v>
+        <v>24.23312610454913</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.32156516638532</v>
+        <v>18.68942172066875</v>
       </c>
       <c r="C9">
-        <v>11.62582510382332</v>
+        <v>10.88606030266115</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.582100834242254</v>
+        <v>15.71614388970119</v>
       </c>
       <c r="F9">
-        <v>29.22144640649499</v>
+        <v>37.90786806255323</v>
       </c>
       <c r="G9">
-        <v>2.067840486204129</v>
+        <v>3.642862576187543</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.890224533834816</v>
+        <v>7.781755807451822</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.308520763630357</v>
+        <v>12.73372745401245</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.75160531420512</v>
+        <v>17.84490429130404</v>
       </c>
       <c r="O9">
-        <v>16.9167397878783</v>
+        <v>24.12616995717184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53950692638337</v>
+        <v>19.45627924736428</v>
       </c>
       <c r="C10">
-        <v>12.22341506653249</v>
+        <v>11.09966240315265</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.728533844260065</v>
+        <v>15.68832239918837</v>
       </c>
       <c r="F10">
-        <v>30.66730535188969</v>
+        <v>37.98653356578144</v>
       </c>
       <c r="G10">
-        <v>2.05819329102336</v>
+        <v>3.639476677735979</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.866470239758296</v>
+        <v>7.772866988131337</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.798558963262243</v>
+        <v>12.79672537505263</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.48391877696729</v>
+        <v>17.76182030418322</v>
       </c>
       <c r="O10">
-        <v>17.4615948767544</v>
+        <v>24.07729806472737</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.49604675935168</v>
+        <v>19.79756325057667</v>
       </c>
       <c r="C11">
-        <v>12.48647574169729</v>
+        <v>11.1947994014201</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.799791045517205</v>
+        <v>15.67778202751107</v>
       </c>
       <c r="F11">
-        <v>31.33528607628972</v>
+        <v>38.0322162524343</v>
       </c>
       <c r="G11">
-        <v>2.05389070637444</v>
+        <v>3.638009697974228</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.856074065931196</v>
+        <v>7.769106248209062</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.01767022859449</v>
+        <v>12.8270068196015</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.3659536637929</v>
+        <v>17.72595656238238</v>
       </c>
       <c r="O11">
-        <v>17.72763502256245</v>
+        <v>24.06155784487707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.8508267204425</v>
+        <v>19.92559052978958</v>
       </c>
       <c r="C12">
-        <v>12.58478991026747</v>
+        <v>11.23051570191954</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.827448555863437</v>
+        <v>15.67409429490798</v>
       </c>
       <c r="F12">
-        <v>31.58957499829614</v>
+        <v>38.05093041593203</v>
       </c>
       <c r="G12">
-        <v>2.052272742274739</v>
+        <v>3.637464669163929</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.852192956790715</v>
+        <v>7.767722602746203</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.10003939096259</v>
+        <v>12.8387013006399</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.32184210951537</v>
+        <v>17.7126526903986</v>
       </c>
       <c r="O12">
-        <v>17.83102887308966</v>
+        <v>24.05653356318529</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.77474786506514</v>
+        <v>19.89807319477484</v>
       </c>
       <c r="C13">
-        <v>12.5636745805665</v>
+        <v>11.22283762337032</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.821461948265767</v>
+        <v>15.67487501758392</v>
       </c>
       <c r="F13">
-        <v>31.53475169274864</v>
+        <v>38.0468371940876</v>
       </c>
       <c r="G13">
-        <v>2.052620713061125</v>
+        <v>3.637581585410211</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.853026400734821</v>
+        <v>7.768018799117557</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.08232735276164</v>
+        <v>12.83617266068324</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.33131722882179</v>
+        <v>17.71550561253955</v>
       </c>
       <c r="O13">
-        <v>17.80864276150328</v>
+        <v>24.05757395731013</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.52538328052225</v>
+        <v>19.80812103604119</v>
       </c>
       <c r="C14">
-        <v>12.49459037273039</v>
+        <v>11.19774411623505</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.802052904753563</v>
+        <v>15.6774725528239</v>
       </c>
       <c r="F14">
-        <v>31.35618043853798</v>
+        <v>38.03372756888027</v>
       </c>
       <c r="G14">
-        <v>2.053757374574332</v>
+        <v>3.637964648303243</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.855753668113177</v>
+        <v>7.768991605057018</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.02445917223335</v>
+        <v>12.82796440564376</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.36231329294868</v>
+        <v>17.72485649891791</v>
       </c>
       <c r="O14">
-        <v>17.73608799241577</v>
+        <v>24.06112571788475</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37167417536621</v>
+        <v>19.75286177331601</v>
       </c>
       <c r="C15">
-        <v>12.45210386495184</v>
+        <v>11.18233272581036</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.79025224906372</v>
+        <v>15.67910314816566</v>
       </c>
       <c r="F15">
-        <v>31.24697113622569</v>
+        <v>38.02588156771399</v>
       </c>
       <c r="G15">
-        <v>2.054455056354433</v>
+        <v>3.638200649212525</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.857431350333571</v>
+        <v>7.76959274045474</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.98893314242496</v>
+        <v>12.82296606790552</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.38137251144298</v>
+        <v>17.73062023008923</v>
       </c>
       <c r="O15">
-        <v>17.69199222657622</v>
+        <v>24.0634232651224</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.4759482161603</v>
+        <v>19.43381268374324</v>
       </c>
       <c r="C16">
-        <v>12.20604321741309</v>
+        <v>11.09340255292394</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.723971004806202</v>
+        <v>15.6890537646322</v>
       </c>
       <c r="F16">
-        <v>30.62384551213538</v>
+        <v>37.98374659837946</v>
       </c>
       <c r="G16">
-        <v>2.058476118552509</v>
+        <v>3.639574018374665</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.867157630809485</v>
+        <v>7.773118435002425</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.784157904274744</v>
+        <v>12.79477858068067</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.49170562804532</v>
+        <v>17.76420288257303</v>
       </c>
       <c r="O16">
-        <v>17.44457754922425</v>
+        <v>24.07845759829265</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.91309197744389</v>
+        <v>19.23605924500937</v>
       </c>
       <c r="C17">
-        <v>12.05281315752646</v>
+        <v>11.0383135068671</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.684503594011327</v>
+        <v>15.69569965734562</v>
       </c>
       <c r="F17">
-        <v>30.24410130745389</v>
+        <v>37.96042784934798</v>
       </c>
       <c r="G17">
-        <v>2.060964218813482</v>
+        <v>3.640435267179698</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.87322713946331</v>
+        <v>7.775353627353711</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.657516755381593</v>
+        <v>12.77789814987148</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.56037401628547</v>
+        <v>17.78529889202881</v>
       </c>
       <c r="O17">
-        <v>17.29748046041556</v>
+        <v>24.08934546001281</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.58441257462035</v>
+        <v>19.12161144442928</v>
       </c>
       <c r="C18">
-        <v>11.96385402186576</v>
+        <v>11.00643754465631</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.662239779289258</v>
+        <v>15.69972138210966</v>
       </c>
       <c r="F18">
-        <v>30.02665436956856</v>
+        <v>37.94794769426733</v>
       </c>
       <c r="G18">
-        <v>2.062403466425528</v>
+        <v>3.640937535563718</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.876756940864124</v>
+        <v>7.776665884260741</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.584320305486974</v>
+        <v>12.76834214080488</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.6002277070996</v>
+        <v>17.79761461506627</v>
       </c>
       <c r="O18">
-        <v>17.21458380427879</v>
+        <v>24.09621878528657</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.47227618338029</v>
+        <v>19.08274414050686</v>
       </c>
       <c r="C19">
-        <v>11.93359353512532</v>
+        <v>10.9956127789808</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.654776459456706</v>
+        <v>15.70111729527128</v>
       </c>
       <c r="F19">
-        <v>29.95320195158801</v>
+        <v>37.94388245060023</v>
       </c>
       <c r="G19">
-        <v>2.062892202340631</v>
+        <v>3.641108781868031</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.877958825015694</v>
+        <v>7.777114772480346</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.559477977001682</v>
+        <v>12.7651331222418</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.61378255798251</v>
+        <v>17.80181576638447</v>
       </c>
       <c r="O19">
-        <v>17.18680890719018</v>
+        <v>24.09865081049397</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.97351951134941</v>
+        <v>19.25718434285037</v>
       </c>
       <c r="C20">
-        <v>12.06921046992949</v>
+        <v>11.04419764623255</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.688659714649207</v>
+        <v>15.69497157996022</v>
       </c>
       <c r="F20">
-        <v>30.28442618591132</v>
+        <v>37.96281374724811</v>
       </c>
       <c r="G20">
-        <v>2.060698519192634</v>
+        <v>3.640342871949338</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.872577038683228</v>
+        <v>7.775112932341574</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.671035178562784</v>
+        <v>12.77967929003011</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.5530270773766</v>
+        <v>17.78303437029129</v>
       </c>
       <c r="O20">
-        <v>17.31296197854918</v>
+        <v>24.08812318006406</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.59882885928621</v>
+        <v>19.83457591465451</v>
       </c>
       <c r="C21">
-        <v>12.51491765378865</v>
+        <v>11.20512324056164</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.807735473458305</v>
+        <v>15.67670135683105</v>
       </c>
       <c r="F21">
-        <v>31.40859577149781</v>
+        <v>38.03753985009389</v>
       </c>
       <c r="G21">
-        <v>2.053423210599894</v>
+        <v>3.637851849319888</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.854951119271803</v>
+        <v>7.768704771792392</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.04147323905934</v>
+        <v>12.83036924147367</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.35319371041079</v>
+        <v>17.72210240694739</v>
       </c>
       <c r="O21">
-        <v>17.75732689620659</v>
+        <v>24.06005705276655</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.61773912888023</v>
+        <v>20.20483492834601</v>
       </c>
       <c r="C22">
-        <v>12.79861688312933</v>
+        <v>11.3084825711347</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.889489313262436</v>
+        <v>15.66653047226222</v>
       </c>
       <c r="F22">
-        <v>32.15106423732091</v>
+        <v>38.09462120762724</v>
       </c>
       <c r="G22">
-        <v>2.048733889395167</v>
+        <v>3.636284909775687</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.843754473901615</v>
+        <v>7.764752435306882</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.28003852695074</v>
+        <v>12.86482151734685</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.22585854913559</v>
+        <v>17.68389375681788</v>
       </c>
       <c r="O22">
-        <v>18.06320694814264</v>
+        <v>24.04717197098064</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.07785866285336</v>
+        <v>20.00790804220272</v>
       </c>
       <c r="C23">
-        <v>12.64790668968266</v>
+        <v>11.2534895481849</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.845494130781935</v>
+        <v>15.67179713285371</v>
       </c>
       <c r="F23">
-        <v>31.7541238486952</v>
+        <v>38.06340461827155</v>
       </c>
       <c r="G23">
-        <v>2.051231034673418</v>
+        <v>3.637115642883113</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.849701937455499</v>
+        <v>7.766840366667993</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.15305154158174</v>
+        <v>12.84631460041886</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.29351606735019</v>
+        <v>17.70413902097063</v>
       </c>
       <c r="O23">
-        <v>17.89852735648257</v>
+        <v>24.05354884540179</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.94621607177746</v>
+        <v>19.24763603370535</v>
       </c>
       <c r="C24">
-        <v>12.0617999367272</v>
+        <v>11.04153806257904</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.686779404443891</v>
+        <v>15.69530011788955</v>
       </c>
       <c r="F24">
-        <v>30.26619257842287</v>
+        <v>37.96173219743613</v>
       </c>
       <c r="G24">
-        <v>2.060818614486516</v>
+        <v>3.640384621634718</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.872870823293339</v>
+        <v>7.775221665761597</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.664924706034867</v>
+        <v>12.77887357270687</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.55634746027997</v>
+        <v>17.78405757691541</v>
       </c>
       <c r="O24">
-        <v>17.30595758081686</v>
+        <v>24.08867386120849</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.45769810857576</v>
+        <v>18.40117938608002</v>
       </c>
       <c r="C25">
-        <v>11.39826458210977</v>
+        <v>10.80571938863249</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.532248379365537</v>
+        <v>15.72826881998118</v>
       </c>
       <c r="F25">
-        <v>28.69908671731007</v>
+        <v>37.88771820128618</v>
       </c>
       <c r="G25">
-        <v>2.07147586588213</v>
+        <v>3.644174805860693</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.899355476324705</v>
+        <v>7.785281353593398</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.12510140894452</v>
+        <v>12.71200453864012</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85349539321641</v>
+        <v>17.87721910588634</v>
       </c>
       <c r="O25">
-        <v>16.73194333423411</v>
+        <v>24.14990272526696</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.76015136190095</v>
+        <v>21.45906299999984</v>
       </c>
       <c r="C2">
-        <v>10.62655083921642</v>
+        <v>10.884517596508</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.75911348061313</v>
+        <v>9.432501719268821</v>
       </c>
       <c r="F2">
-        <v>37.86406441250496</v>
+        <v>27.58339029885926</v>
       </c>
       <c r="G2">
-        <v>3.647195106548639</v>
+        <v>2.079630342811128</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.793573481488314</v>
+        <v>4.920248843166278</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.66801034171153</v>
+        <v>8.718633733093945</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.95183981319581</v>
+        <v>12.08375136068442</v>
       </c>
       <c r="O2">
-        <v>24.21493026832341</v>
+        <v>16.36354341740419</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.31743106386717</v>
+        <v>19.99909635346818</v>
       </c>
       <c r="C3">
-        <v>10.50202157589124</v>
+        <v>10.52180996715632</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.78412391665828</v>
+        <v>9.373476706672912</v>
       </c>
       <c r="F3">
-        <v>37.86731700481619</v>
+        <v>26.85427620831089</v>
       </c>
       <c r="G3">
-        <v>3.649386480677572</v>
+        <v>2.085365158232886</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.799749773948999</v>
+        <v>4.935325302380342</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.64155157016876</v>
+        <v>8.439072474993623</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.00619248413137</v>
+        <v>12.24687411055228</v>
       </c>
       <c r="O3">
-        <v>24.27136305561313</v>
+        <v>16.14652412923174</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.04254286890179</v>
+        <v>19.09613434782127</v>
       </c>
       <c r="C4">
-        <v>10.42415064130647</v>
+        <v>10.29242292619678</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.80150863720164</v>
+        <v>9.341394639767246</v>
       </c>
       <c r="F4">
-        <v>37.87882779522931</v>
+        <v>26.42103582852757</v>
       </c>
       <c r="G4">
-        <v>3.650803676849022</v>
+        <v>2.088994254277045</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.803818088074102</v>
+        <v>4.945048846477131</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.62698856031388</v>
+        <v>8.265993035272635</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.04143792110278</v>
+        <v>12.35050912056514</v>
       </c>
       <c r="O4">
-        <v>24.31208153850937</v>
+        <v>16.02887982498353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.9299206556445</v>
+        <v>18.72082523484164</v>
       </c>
       <c r="C5">
-        <v>10.39208234087552</v>
+        <v>10.1973497378058</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.80910344715583</v>
+        <v>9.329355669168685</v>
       </c>
       <c r="F5">
-        <v>37.88591036140324</v>
+        <v>26.2482865938927</v>
       </c>
       <c r="G5">
-        <v>3.651399279116468</v>
+        <v>2.090500975150054</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.805545589121916</v>
+        <v>4.94913054185797</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.62148119094821</v>
+        <v>8.195200822820215</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.05627265266385</v>
+        <v>12.39361427482016</v>
       </c>
       <c r="O5">
-        <v>24.33019600940542</v>
+        <v>15.98477809212015</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.91118838502911</v>
+        <v>18.65782834594403</v>
       </c>
       <c r="C6">
-        <v>10.38673774114418</v>
+        <v>10.18146916373178</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.81039539662991</v>
+        <v>9.32741874781617</v>
       </c>
       <c r="F6">
-        <v>37.88723083444418</v>
+        <v>26.21983600387255</v>
       </c>
       <c r="G6">
-        <v>3.651499272310536</v>
+        <v>2.090752866114201</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.805836651178873</v>
+        <v>4.94981556285531</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.62059260876897</v>
+        <v>8.183433075272136</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.05876448251769</v>
+        <v>12.40082456509965</v>
       </c>
       <c r="O6">
-        <v>24.33329564725429</v>
+        <v>15.97768418710415</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.04102622382521</v>
+        <v>19.09111826482265</v>
       </c>
       <c r="C7">
-        <v>10.42371948890629</v>
+        <v>10.29114707985443</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.80160899640937</v>
+        <v>9.341228104215995</v>
       </c>
       <c r="F7">
-        <v>37.87891363050866</v>
+        <v>26.418690468738</v>
       </c>
       <c r="G7">
-        <v>3.650811636053948</v>
+        <v>2.089014460831478</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.803841103545306</v>
+        <v>4.945103408219416</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.62691255128181</v>
+        <v>8.265039228394913</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.04163607528642</v>
+        <v>12.35108691771182</v>
       </c>
       <c r="O7">
-        <v>24.31231968309989</v>
+        <v>16.02826962997365</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.60823252497582</v>
+        <v>20.96652887634658</v>
       </c>
       <c r="C8">
-        <v>10.58391706557683</v>
+        <v>10.76089069392421</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.76731636581758</v>
+        <v>9.411280235329201</v>
       </c>
       <c r="F8">
-        <v>37.86321148163442</v>
+        <v>27.32909803719049</v>
       </c>
       <c r="G8">
-        <v>3.647935849324307</v>
+        <v>2.081585747637426</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.795645903766555</v>
+        <v>4.925351596555897</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.65854059330554</v>
+        <v>8.622593866881553</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.97019255768919</v>
+        <v>12.13927336526577</v>
       </c>
       <c r="O8">
-        <v>24.23312610454913</v>
+        <v>16.28542866461055</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.68942172066875</v>
+        <v>24.32156516638529</v>
       </c>
       <c r="C9">
-        <v>10.88606030266115</v>
+        <v>11.62582510382313</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.71614388970119</v>
+        <v>9.582100834242251</v>
       </c>
       <c r="F9">
-        <v>37.90786806255323</v>
+        <v>29.22144640649509</v>
       </c>
       <c r="G9">
-        <v>3.642862576187543</v>
+        <v>2.067840486204263</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.781755807451822</v>
+        <v>4.890224533834951</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.73372745401245</v>
+        <v>9.308520763630398</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.84490429130404</v>
+        <v>11.75160531420522</v>
       </c>
       <c r="O9">
-        <v>24.12616995717184</v>
+        <v>16.91673978787845</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.45627924736428</v>
+        <v>26.53950692638335</v>
       </c>
       <c r="C10">
-        <v>11.09966240315265</v>
+        <v>12.22341506653238</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.68832239918837</v>
+        <v>9.728533844259971</v>
       </c>
       <c r="F10">
-        <v>37.98653356578144</v>
+        <v>30.66730535188981</v>
       </c>
       <c r="G10">
-        <v>3.639476677735979</v>
+        <v>2.058193291023495</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.772866988131337</v>
+        <v>4.86647023975826</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.79672537505263</v>
+        <v>9.79855896326224</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.76182030418322</v>
+        <v>11.48391877696739</v>
       </c>
       <c r="O10">
-        <v>24.07729806472737</v>
+        <v>17.46159487675455</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.79756325057667</v>
+        <v>27.4960467593517</v>
       </c>
       <c r="C11">
-        <v>11.1947994014201</v>
+        <v>12.48647574169753</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.67778202751107</v>
+        <v>9.799791045517345</v>
       </c>
       <c r="F11">
-        <v>38.0322162524343</v>
+        <v>31.33528607628968</v>
       </c>
       <c r="G11">
-        <v>3.638009697974228</v>
+        <v>2.053890706374576</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.769106248209062</v>
+        <v>4.856074065931101</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.8270068196015</v>
+        <v>10.01767022859451</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.72595656238238</v>
+        <v>11.36595366379285</v>
       </c>
       <c r="O11">
-        <v>24.06155784487707</v>
+        <v>17.72763502256231</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.92559052978958</v>
+        <v>27.85082672044249</v>
       </c>
       <c r="C12">
-        <v>11.23051570191954</v>
+        <v>12.5847899102674</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.67409429490798</v>
+        <v>9.827448555863437</v>
       </c>
       <c r="F12">
-        <v>38.05093041593203</v>
+        <v>31.58957499829626</v>
       </c>
       <c r="G12">
-        <v>3.637464669163929</v>
+        <v>2.052272742274873</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.767722602746203</v>
+        <v>4.852192956790683</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.8387013006399</v>
+        <v>10.10003939096261</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.7126526903986</v>
+        <v>11.32184210951547</v>
       </c>
       <c r="O12">
-        <v>24.05653356318529</v>
+        <v>17.83102887308976</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.89807319477484</v>
+        <v>27.7747478650651</v>
       </c>
       <c r="C13">
-        <v>11.22283762337032</v>
+        <v>12.56367458056649</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.67487501758392</v>
+        <v>9.821461948265817</v>
       </c>
       <c r="F13">
-        <v>38.0468371940876</v>
+        <v>31.53475169274874</v>
       </c>
       <c r="G13">
-        <v>3.637581585410211</v>
+        <v>2.052620713061257</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.768018799117557</v>
+        <v>4.853026400734751</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.83617266068324</v>
+        <v>10.08232735276165</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.71550561253955</v>
+        <v>11.33131722882185</v>
       </c>
       <c r="O13">
-        <v>24.05757395731013</v>
+        <v>17.80864276150336</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.80812103604119</v>
+        <v>27.52538328052224</v>
       </c>
       <c r="C14">
-        <v>11.19774411623505</v>
+        <v>12.4945903727305</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.6774725528239</v>
+        <v>9.802052904753651</v>
       </c>
       <c r="F14">
-        <v>38.03372756888027</v>
+        <v>31.35618043853802</v>
       </c>
       <c r="G14">
-        <v>3.637964648303243</v>
+        <v>2.053757374574465</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.768991605057018</v>
+        <v>4.855753668113208</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.82796440564376</v>
+        <v>10.02445917223337</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.72485649891791</v>
+        <v>11.36231329294872</v>
       </c>
       <c r="O14">
-        <v>24.06112571788475</v>
+        <v>17.73608799241576</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.75286177331601</v>
+        <v>27.37167417536617</v>
       </c>
       <c r="C15">
-        <v>11.18233272581036</v>
+        <v>12.45210386495173</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.67910314816566</v>
+        <v>9.790252249063633</v>
       </c>
       <c r="F15">
-        <v>38.02588156771399</v>
+        <v>31.24697113622571</v>
       </c>
       <c r="G15">
-        <v>3.638200649212525</v>
+        <v>2.054455056354701</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.76959274045474</v>
+        <v>4.857431350333604</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.82296606790552</v>
+        <v>9.988933142424941</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.73062023008923</v>
+        <v>11.38137251144297</v>
       </c>
       <c r="O15">
-        <v>24.0634232651224</v>
+        <v>17.6919922265763</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.43381268374324</v>
+        <v>26.4759482161603</v>
       </c>
       <c r="C16">
-        <v>11.09340255292394</v>
+        <v>12.20604321741299</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.6890537646322</v>
+        <v>9.723971004806206</v>
       </c>
       <c r="F16">
-        <v>37.98374659837946</v>
+        <v>30.6238455121354</v>
       </c>
       <c r="G16">
-        <v>3.639574018374665</v>
+        <v>2.058476118552778</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.773118435002425</v>
+        <v>4.867157630809549</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.79477858068067</v>
+        <v>9.784157904274741</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.76420288257303</v>
+        <v>11.49170562804531</v>
       </c>
       <c r="O16">
-        <v>24.07845759829265</v>
+        <v>17.4445775492243</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.23605924500937</v>
+        <v>25.91309197744388</v>
       </c>
       <c r="C17">
-        <v>11.0383135068671</v>
+        <v>12.05281315752648</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.69569965734562</v>
+        <v>9.68450359401132</v>
       </c>
       <c r="F17">
-        <v>37.96042784934798</v>
+        <v>30.24410130745386</v>
       </c>
       <c r="G17">
-        <v>3.640435267179698</v>
+        <v>2.06096421881348</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.775353627353711</v>
+        <v>4.873227139463279</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.77789814987148</v>
+        <v>9.657516755381575</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.78529889202881</v>
+        <v>11.56037401628545</v>
       </c>
       <c r="O17">
-        <v>24.08934546001281</v>
+        <v>17.29748046041553</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.12161144442928</v>
+        <v>25.58441257462036</v>
       </c>
       <c r="C18">
-        <v>11.00643754465631</v>
+        <v>11.96385402186556</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.69972138210966</v>
+        <v>9.662239779289219</v>
       </c>
       <c r="F18">
-        <v>37.94794769426733</v>
+        <v>30.02665436956848</v>
       </c>
       <c r="G18">
-        <v>3.640937535563718</v>
+        <v>2.062403466425661</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.776665884260741</v>
+        <v>4.876756940864223</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.76834214080488</v>
+        <v>9.584320305486973</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.79761461506627</v>
+        <v>11.60022770709961</v>
       </c>
       <c r="O18">
-        <v>24.09621878528657</v>
+        <v>17.21458380427877</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.08274414050686</v>
+        <v>25.47227618338025</v>
       </c>
       <c r="C19">
-        <v>10.9956127789808</v>
+        <v>11.93359353512541</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.70111729527128</v>
+        <v>9.654776459456718</v>
       </c>
       <c r="F19">
-        <v>37.94388245060023</v>
+        <v>29.95320195158811</v>
       </c>
       <c r="G19">
-        <v>3.641108781868031</v>
+        <v>2.062892202340498</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.777114772480346</v>
+        <v>4.877958825015627</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.7651331222418</v>
+        <v>9.559477977001677</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.80181576638447</v>
+        <v>11.61378255798257</v>
       </c>
       <c r="O19">
-        <v>24.09865081049397</v>
+        <v>17.18680890719025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.25718434285037</v>
+        <v>25.9735195113494</v>
       </c>
       <c r="C20">
-        <v>11.04419764623255</v>
+        <v>12.06921046992958</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.69497157996022</v>
+        <v>9.688659714649216</v>
       </c>
       <c r="F20">
-        <v>37.96281374724811</v>
+        <v>30.28442618591133</v>
       </c>
       <c r="G20">
-        <v>3.640342871949338</v>
+        <v>2.060698519192632</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.775112932341574</v>
+        <v>4.872577038683161</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.77967929003011</v>
+        <v>9.671035178562795</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.78303437029129</v>
+        <v>11.55302707737664</v>
       </c>
       <c r="O20">
-        <v>24.08812318006406</v>
+        <v>17.31296197854917</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.83457591465451</v>
+        <v>27.59882885928621</v>
       </c>
       <c r="C21">
-        <v>11.20512324056164</v>
+        <v>12.51491765378847</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.67670135683105</v>
+        <v>9.80773547345836</v>
       </c>
       <c r="F21">
-        <v>38.03753985009389</v>
+        <v>31.40859577149785</v>
       </c>
       <c r="G21">
-        <v>3.637851849319888</v>
+        <v>2.053423210599893</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.768704771792392</v>
+        <v>4.85495111927187</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.83036924147367</v>
+        <v>10.0414732390594</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.72210240694739</v>
+        <v>11.35319371041086</v>
       </c>
       <c r="O21">
-        <v>24.06005705276655</v>
+        <v>17.75732689620663</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.20483492834601</v>
+        <v>28.61773912888026</v>
       </c>
       <c r="C22">
-        <v>11.3084825711347</v>
+        <v>12.79861688312915</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.66653047226222</v>
+        <v>9.889489313262425</v>
       </c>
       <c r="F22">
-        <v>38.09462120762724</v>
+        <v>32.15106423732094</v>
       </c>
       <c r="G22">
-        <v>3.636284909775687</v>
+        <v>2.048733889395299</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.764752435306882</v>
+        <v>4.843754473901516</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.86482151734685</v>
+        <v>10.28003852695077</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.68389375681788</v>
+        <v>11.22585854913556</v>
       </c>
       <c r="O22">
-        <v>24.04717197098064</v>
+        <v>18.06320694814265</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.00790804220272</v>
+        <v>28.07785866285334</v>
       </c>
       <c r="C23">
-        <v>11.2534895481849</v>
+        <v>12.64790668968263</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.67179713285371</v>
+        <v>9.845494130781992</v>
       </c>
       <c r="F23">
-        <v>38.06340461827155</v>
+        <v>31.75412384869528</v>
       </c>
       <c r="G23">
-        <v>3.637115642883113</v>
+        <v>2.051231034673418</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.766840366667993</v>
+        <v>4.849701937455562</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.84631460041886</v>
+        <v>10.15305154158179</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.70413902097063</v>
+        <v>11.29351606735026</v>
       </c>
       <c r="O23">
-        <v>24.05354884540179</v>
+        <v>17.89852735648263</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.24763603370535</v>
+        <v>25.94621607177752</v>
       </c>
       <c r="C24">
-        <v>11.04153806257904</v>
+        <v>12.0617999367273</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.69530011788955</v>
+        <v>9.686779404443911</v>
       </c>
       <c r="F24">
-        <v>37.96173219743613</v>
+        <v>30.26619257842273</v>
       </c>
       <c r="G24">
-        <v>3.640384621634718</v>
+        <v>2.060818614486247</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.775221665761597</v>
+        <v>4.87287082329334</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.77887357270687</v>
+        <v>9.66492470603486</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.78405757691541</v>
+        <v>11.55634746027995</v>
       </c>
       <c r="O24">
-        <v>24.08867386120849</v>
+        <v>17.30595758081672</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.40117938608002</v>
+        <v>23.45769810857577</v>
       </c>
       <c r="C25">
-        <v>10.80571938863249</v>
+        <v>11.39826458210979</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.72826881998118</v>
+        <v>9.532248379365745</v>
       </c>
       <c r="F25">
-        <v>37.88771820128618</v>
+        <v>28.69908671731008</v>
       </c>
       <c r="G25">
-        <v>3.644174805860693</v>
+        <v>2.071475865882263</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.785281353593398</v>
+        <v>4.899355476324708</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.71200453864012</v>
+        <v>9.125101408944595</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.87721910588634</v>
+        <v>11.85349539321638</v>
       </c>
       <c r="O25">
-        <v>24.14990272526696</v>
+        <v>16.73194333423404</v>
       </c>
     </row>
   </sheetData>
